--- a/agents/CBPP/CBPP-Data-Contents.xlsx
+++ b/agents/CBPP/CBPP-Data-Contents.xlsx
@@ -51,16 +51,16 @@
     <t xml:space="preserve">sub-title</t>
   </si>
   <si>
-    <t xml:space="preserve">Based on official disease reports to the OIE</t>
+    <t xml:space="preserve">Based on official disease reports to the WOAH</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">CBPP is a disease listed in the World Organisation for Animal Health ({ref009:OIE}) Terrestrial Animal Health Code and must be reported to the OIE. The map to the right displays outbreak points reported to the OIE early warning system since 2005.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As described in the OIE {ref005:Terrestrial Animal Health Code}, the OIE early warning system includes immediate notifications and follow-up reports on:</t>
+    <t xml:space="preserve">CBPP is a disease listed in the World Organisation for Animal Health ({ref009:WOAH}) Terrestrial Animal Health Code and must be reported to the WOAH. The map to the right displays outbreak points reported to the WOAH early warning system since 2005.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As described in the WOAH {ref005:Terrestrial Animal Health Code}, the WOAH early warning system includes immediate notifications and follow-up reports on:</t>
   </si>
   <si>
     <t xml:space="preserve">list</t>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">Occurrence of a listed disease in an unusual host species.</t>
   </si>
   <si>
-    <t xml:space="preserve">Countries are coloured according to the available information regarding their stable disease situation (disease status legend). This information is provided by countries through the OIE monitoring system, which is a different reporting channel.&lt;br&gt;Immediate notifications (points) and disease status (country/region colours) are reported to the OIE in different spatial and temporal scales, and therefore are displayed in the map as layers which can be filtered independently.</t>
+    <t xml:space="preserve">Countries are coloured according to the available information regarding their stable disease situation (disease status legend). This information is provided by countries through the WOAH monitoring system, which is a different reporting channel.&lt;br&gt;Immediate notifications (points) and disease status (country/region colours) are reported to the WOAH in different spatial and temporal scales, and therefore are displayed in the map as layers which can be filtered independently.</t>
   </si>
   <si>
     <t xml:space="preserve">annotation</t>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:OIE-WAHIS}.</t>
+    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:WOAH-WAHIS}.</t>
   </si>
   <si>
     <t xml:space="preserve">map</t>
@@ -108,7 +108,7 @@
     <t xml:space="preserve">Animal Health Impact</t>
   </si>
   <si>
-    <t xml:space="preserve">A summary of the disease in animal hosts is given in the {ref008:OIE Technical disease card}.</t>
+    <t xml:space="preserve">A summary of the disease in animal hosts is given in the {ref008:WOAH Technical disease card}.</t>
   </si>
   <si>
     <t xml:space="preserve">The panel to the right summarizes all evidence collected by EFSA from published experimental infection studies describing the health effects of this pathogen in host animal species. Scroll down through the content.</t>
@@ -147,7 +147,7 @@
     <t xml:space="preserve">Public Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Humans are not susceptible,  and therefore there is no direct impact on public health ({ref008:OIE Technical disease card}).</t>
+    <t xml:space="preserve">Humans are not susceptible,  and therefore there is no direct impact on public health ({ref008:WOAH Technical disease card}).</t>
   </si>
   <si>
     <t xml:space="preserve">HTML file</t>
@@ -174,7 +174,7 @@
     <t xml:space="preserve">Agent characteristics</t>
   </si>
   <si>
-    <t xml:space="preserve">Refer to the {ref008:OIE Technical disease card} for a key summary of the bacterium characteristics. </t>
+    <t xml:space="preserve">Refer to the {ref008:WOAH Technical disease card} for a key summary of the bacterium characteristics. </t>
   </si>
   <si>
     <t xml:space="preserve">Bacteria survival outside living hosts </t>
@@ -207,7 +207,7 @@
     <t xml:space="preserve">Transmission</t>
   </si>
   <si>
-    <t xml:space="preserve">Refer to the {ref008:OIE Technical disease card} for a key summary of the disease transmission and epidemiological parameters.</t>
+    <t xml:space="preserve">Refer to the {ref008:WOAH Technical disease card} for a key summary of the disease transmission and epidemiological parameters.</t>
   </si>
   <si>
     <t xml:space="preserve">The panel to the right summarizes all evidence collected by EFSA from published experimental infection studies describing host infectiousness. Scroll down through the content.</t>
@@ -231,10 +231,10 @@
     <t xml:space="preserve">Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-prescribed tests for international trade include Bacterial cultivation of samples taken from live animals from nasal swabs and/or bronchoalveolar washings or pleural fluid o from samples taken at necropsy from lung lesions, lymph nodes, pleural fluid and synovial fluid from those animals with arthritis.
+    <t xml:space="preserve">WOAH-prescribed tests for international trade include Bacterial cultivation of samples taken from live animals from nasal swabs and/or bronchoalveolar washings or pleural fluid o from samples taken at necropsy from lung lesions, lymph nodes, pleural fluid and synovial fluid from those animals with arthritis.
 Diagnosis may be confirmed by immunological tests, such as the growth inhibition and immunofluorescence tests or PCR.
 Serological test such as the modified Campbell &amp; Turner complement fixation test or the competitive enzyme-linked immunosorbent assay.
- ({ref010:OIE, Terrestrial Manual})</t>
+ ({ref010:WOAH, Terrestrial Manual})</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews covering peer-reviewed literature in English since 1970, covering diagnostic tests approved for use in the European Union (EU). </t>
@@ -310,7 +310,7 @@
     <t xml:space="preserve">The CoVetLab consortium has been responsible for the systematic literature reviews since 2015, and has delivered story maps to EFSA since 2021. Partners are: Swedish National Veterinary Institute (SVA, Sweden); Wageningen Bioveterinary Research (WBVR, The Netherlands); Animal and Plant Health Agency (APHA; UK) and the University of Surrey (UK). </t>
   </si>
   <si>
-    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (OIE). {ref001:OIE-WAHIS} (OIE World Animal Health Information System) is the original source of these data.</t>
+    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (WOAH). {ref001:WOAH-WAHIS} (WOAH World Animal Health Information System) is the original source of these data.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA thanks the following experts for their specific contribution to this story map:</t>
@@ -370,7 +370,7 @@
     <t xml:space="preserve">ref001</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-WAHIS (OIE World Animal Health Information System)</t>
+    <t xml:space="preserve">WOAH-WAHIS (WOAH World Animal Health Information System)</t>
   </si>
   <si>
     <t xml:space="preserve">https://wahis.oie.int/</t>
@@ -406,7 +406,7 @@
     <t xml:space="preserve">ref005</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=0&amp;htmfile=chapitre_notification.htm</t>
@@ -433,7 +433,7 @@
     <t xml:space="preserve">ref008</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health) Technical Disease Card: Contagious caprine pleuropneumonia, 2009</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health) Technical Disease Card: Contagious caprine pleuropneumonia, 2009</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Animal_Health_in_the_World/docs/pdf/Disease_cards/CONTAGIOUS_CAPRINE_PLEURO.pdf</t>
@@ -442,7 +442,7 @@
     <t xml:space="preserve">ref009</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. Contagious caprine pleuropneumonia. Chapter 14.3. OIE Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. Contagious caprine pleuropneumonia. Chapter 14.3. WOAH Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahc/current/chapitre_ccpp.pdf</t>
@@ -451,7 +451,7 @@
     <t xml:space="preserve">ref010</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. Contagious caprine pleuropneumonia. Chapter 3.08.04. OIE Terrestrial Manual 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. Contagious caprine pleuropneumonia. Chapter 3.08.04. WOAH Terrestrial Manual 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahm/3.08.04_CCPP.pdf</t>

--- a/agents/CBPP/CBPP-Data-Contents.xlsx
+++ b/agents/CBPP/CBPP-Data-Contents.xlsx
@@ -141,7 +141,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref014:here}. Data fields are explained in this {ref015:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health</t>
@@ -153,7 +153,7 @@
     <t xml:space="preserve">HTML file</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact-CBPP.html</t>
+    <t xml:space="preserve">ExperimentalInfections-CBPP.html</t>
   </si>
   <si>
     <t xml:space="preserve">Agent</t>
@@ -198,7 +198,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref017:here}. Data fields are explained in this {ref018:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Survival-CBPP.html</t>
@@ -261,7 +261,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref020:here}. Data fields are explained in this {ref021:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostic-CBPP.html</t>

--- a/agents/CBPP/CBPP-Data-Contents.xlsx
+++ b/agents/CBPP/CBPP-Data-Contents.xlsx
@@ -201,7 +201,7 @@
     <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
-    <t xml:space="preserve">Survival-CBPP.html</t>
+    <t xml:space="preserve">PathogenSurvival-CBPP.html</t>
   </si>
   <si>
     <t xml:space="preserve">Transmission</t>

--- a/agents/CBPP/CBPP-Data-Contents.xlsx
+++ b/agents/CBPP/CBPP-Data-Contents.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -273,6 +273,15 @@
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews covering all vaccine efficacy studies  published in peer-reviewed literature in English since 1970, when evaluating vaccines approved for use in the European Union. The next update of the SLR for vaccines is scheduled to be carried out in 2023. </t>
   </si>
   <si>
+    <t xml:space="preserve">Picture on the right: Philip Fischer, USAID; CC 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image_right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cattle.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Treatments</t>
   </si>
   <si>
@@ -320,9 +329,6 @@
   </si>
   <si>
     <t xml:space="preserve">Expert name2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image_right</t>
   </si>
   <si>
     <t xml:space="preserve">covetlab.png</t>
@@ -2312,16 +2318,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E79" t="s">
         <v>85</v>
@@ -2329,19 +2335,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E80" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81">
@@ -2349,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -2358,7 +2364,7 @@
         <v>9</v>
       </c>
       <c r="E81" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82">
@@ -2366,7 +2372,7 @@
         <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="n">
         <v>3</v>
@@ -2375,89 +2381,89 @@
         <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B83" t="n">
         <v>8</v>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B84" t="n">
         <v>8</v>
       </c>
       <c r="C84" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B85" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E86" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B87" t="n">
         <v>9</v>
       </c>
       <c r="C87" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="E87" t="s">
         <v>94</v>
@@ -2465,16 +2471,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B88" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
         <v>95</v>
@@ -2482,41 +2488,41 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B89" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B90" t="n">
         <v>10</v>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B91" t="n">
         <v>10</v>
@@ -2528,55 +2534,55 @@
         <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B92" t="n">
         <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B93" t="n">
         <v>10</v>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B94" t="n">
         <v>10</v>
       </c>
       <c r="C94" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
         <v>102</v>
@@ -2584,16 +2590,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B95" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
         <v>103</v>
@@ -2601,16 +2607,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B96" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="E96" t="s">
         <v>104</v>
@@ -2618,16 +2624,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B97" t="n">
         <v>11</v>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E97" t="s">
         <v>105</v>
@@ -2635,16 +2641,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B98" t="n">
         <v>11</v>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
         <v>106</v>
@@ -2652,16 +2658,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B99" t="n">
         <v>11</v>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E99" t="s">
         <v>107</v>
@@ -2669,7 +2675,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B100" t="n">
         <v>11</v>
@@ -2686,7 +2692,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B101" t="n">
         <v>11</v>
@@ -2703,7 +2709,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B102" t="n">
         <v>11</v>
@@ -2720,7 +2726,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B103" t="n">
         <v>11</v>
@@ -2737,7 +2743,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B104" t="n">
         <v>11</v>
@@ -2750,6 +2756,40 @@
       </c>
       <c r="E104" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>9</v>
+      </c>
+      <c r="B105" t="n">
+        <v>11</v>
+      </c>
+      <c r="C105" t="n">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>10</v>
+      </c>
+      <c r="B106" t="n">
+        <v>11</v>
+      </c>
+      <c r="C106" t="n">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2771,461 +2811,461 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D30" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D31" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/agents/CBPP/CBPP-Data-Contents.xlsx
+++ b/agents/CBPP/CBPP-Data-Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DiseaseProfiles\agents\CBPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\Azure\storymaps\agents\CBPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2288E757-0951-4080-B712-7A001887FEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE199CF0-A30D-4AFC-9E13-1369747C6B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-170" yWindow="10430" windowWidth="7240" windowHeight="3980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="222">
   <si>
     <t>ID</t>
   </si>
@@ -685,6 +685,12 @@
   </si>
   <si>
     <t>Disease-CBPP.html</t>
+  </si>
+  <si>
+    <t>cattle2.jpg</t>
+  </si>
+  <si>
+    <t>Picture on the right: Keith Weller, U.S. Department of Agriculture. CC 0. On Pixnio.</t>
   </si>
 </sst>
 </file>
@@ -1032,15 +1038,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1074,7 +1080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1159,7 +1165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1244,7 +1250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1295,7 +1301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1312,7 +1318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1346,7 +1352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -1363,7 +1369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -1380,7 +1386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>4</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -1448,7 +1454,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>7</v>
       </c>
@@ -1465,7 +1471,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>8</v>
       </c>
@@ -1482,7 +1488,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1507,16 +1513,16 @@
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -1530,10 +1536,10 @@
         <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -1547,10 +1553,10 @@
         <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -1558,16 +1564,16 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -1581,10 +1587,10 @@
         <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -1598,10 +1604,10 @@
         <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -1615,10 +1621,10 @@
         <v>16</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -1632,10 +1638,10 @@
         <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -1649,10 +1655,10 @@
         <v>16</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -1660,16 +1666,16 @@
         <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>12</v>
       </c>
@@ -1683,10 +1689,10 @@
         <v>24</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>13</v>
       </c>
@@ -1700,10 +1706,10 @@
         <v>24</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>14</v>
       </c>
@@ -1711,16 +1717,16 @@
         <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>15</v>
       </c>
@@ -1728,16 +1734,16 @@
         <v>3</v>
       </c>
       <c r="C41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>16</v>
       </c>
@@ -1745,205 +1751,205 @@
         <v>3</v>
       </c>
       <c r="C42" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>17</v>
-      </c>
-      <c r="B43" s="1">
-        <v>3</v>
-      </c>
-      <c r="C43" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>10</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <v>4</v>
-      </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>11</v>
       </c>
-      <c r="E45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>3</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>4</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>5</v>
-      </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>6</v>
-      </c>
-      <c r="B49">
-        <v>4</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>7</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>9</v>
-      </c>
-      <c r="B52">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>10</v>
-      </c>
       <c r="B53">
         <v>4</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -1955,12 +1961,12 @@
         <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -1972,29 +1978,29 @@
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -2006,12 +2012,12 @@
         <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B58">
         <v>4</v>
@@ -2023,114 +2029,114 @@
         <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>17</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
         <v>16</v>
       </c>
-      <c r="B59">
-        <v>4</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-      <c r="D59" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>17</v>
-      </c>
-      <c r="B60">
-        <v>4</v>
-      </c>
-      <c r="C60">
-        <v>10</v>
-      </c>
-      <c r="D60" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61">
-        <v>5</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62">
-        <v>5</v>
-      </c>
-      <c r="C62">
-        <v>3</v>
-      </c>
-      <c r="D62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>3</v>
-      </c>
-      <c r="B63">
-        <v>5</v>
-      </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-      <c r="D63" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>4</v>
-      </c>
-      <c r="B64">
-        <v>5</v>
-      </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="D64" t="s">
-        <v>13</v>
-      </c>
       <c r="E64" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -2142,12 +2148,12 @@
         <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -2159,12 +2165,12 @@
         <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -2176,29 +2182,29 @@
         <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B68">
         <v>5</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E68" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -2210,12 +2216,12 @@
         <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -2227,63 +2233,63 @@
         <v>24</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B71">
         <v>5</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -2295,12 +2301,12 @@
         <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -2312,12 +2318,12 @@
         <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -2329,29 +2335,29 @@
         <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B77">
         <v>6</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -2363,29 +2369,29 @@
         <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B79">
         <v>6</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -2397,29 +2403,29 @@
         <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B81">
         <v>6</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -2431,182 +2437,182 @@
         <v>24</v>
       </c>
       <c r="E82" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B83">
         <v>6</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B85">
         <v>7</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E85" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B86">
         <v>7</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B87">
         <v>7</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B89">
         <v>8</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B90">
         <v>8</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="E91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92">
         <v>9</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B93">
         <v>9</v>
@@ -2618,114 +2624,114 @@
         <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B94">
         <v>9</v>
       </c>
       <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95">
         <v>10</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>45</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="B95">
-        <v>10</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B96">
         <v>10</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B97">
         <v>10</v>
       </c>
       <c r="C97">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
         <v>96</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98">
-        <v>11</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99">
         <v>11</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B100">
         <v>11</v>
@@ -2737,12 +2743,12 @@
         <v>13</v>
       </c>
       <c r="E100" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B101">
         <v>11</v>
@@ -2754,29 +2760,29 @@
         <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B102">
         <v>11</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B103">
         <v>11</v>
@@ -2788,63 +2794,63 @@
         <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B104">
         <v>11</v>
       </c>
       <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>7</v>
+      </c>
+      <c r="B105">
+        <v>11</v>
+      </c>
+      <c r="C105">
         <v>12</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D105" t="s">
         <v>86</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>1</v>
-      </c>
-      <c r="B105">
-        <v>12</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106">
         <v>12</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B107">
         <v>12</v>
@@ -2856,29 +2862,29 @@
         <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B108">
         <v>12</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E108" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B109">
         <v>12</v>
@@ -2890,12 +2896,12 @@
         <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B110">
         <v>12</v>
@@ -2907,12 +2913,12 @@
         <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B111">
         <v>12</v>
@@ -2924,12 +2930,12 @@
         <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B112">
         <v>12</v>
@@ -2941,12 +2947,12 @@
         <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B113">
         <v>12</v>
@@ -2958,12 +2964,12 @@
         <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B114">
         <v>12</v>
@@ -2975,6 +2981,23 @@
         <v>16</v>
       </c>
       <c r="E114" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>10</v>
+      </c>
+      <c r="B115">
+        <v>12</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2990,9 +3013,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3006,7 +3029,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>118</v>
       </c>
@@ -3020,7 +3043,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -3034,7 +3057,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -3048,7 +3071,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -3062,7 +3085,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -3076,7 +3099,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>133</v>
       </c>
@@ -3090,7 +3113,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -3104,7 +3127,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -3118,7 +3141,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>142</v>
       </c>
@@ -3132,7 +3155,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -3146,7 +3169,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>148</v>
       </c>
@@ -3160,7 +3183,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -3174,7 +3197,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>154</v>
       </c>
@@ -3188,7 +3211,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -3202,7 +3225,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>160</v>
       </c>
@@ -3216,7 +3239,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -3230,7 +3253,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -3244,7 +3267,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -3258,7 +3281,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>172</v>
       </c>
@@ -3272,7 +3295,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -3286,7 +3309,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>178</v>
       </c>
@@ -3300,7 +3323,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>181</v>
       </c>
@@ -3314,7 +3337,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>184</v>
       </c>
@@ -3328,7 +3351,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>187</v>
       </c>
@@ -3342,7 +3365,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>190</v>
       </c>
@@ -3356,7 +3379,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>193</v>
       </c>
@@ -3370,7 +3393,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>196</v>
       </c>
@@ -3384,7 +3407,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>199</v>
       </c>
@@ -3398,7 +3421,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>202</v>
       </c>
@@ -3412,7 +3435,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>205</v>
       </c>
@@ -3426,7 +3449,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>208</v>
       </c>
@@ -3440,7 +3463,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>211</v>
       </c>
